--- a/Code/DoAn3_10122277_12522T.1/src/test/resources/Book1.xlsx
+++ b/Code/DoAn3_10122277_12522T.1/src/test/resources/Book1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\DoAn3-1012227_12522T.1\Code\DoAn3_10122277_12522T.1\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B29B774A-1FD8-4B60-9F89-4944148F2516}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2CBB397-7548-4526-808E-F55A23632138}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{865DF4FD-EE97-4CA4-8695-B58D479214D9}"/>
+    <workbookView xWindow="2244" yWindow="3084" windowWidth="18036" windowHeight="8964" xr2:uid="{865DF4FD-EE97-4CA4-8695-B58D479214D9}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -61,7 +61,7 @@
     <t>Kết quả mong đợi</t>
   </si>
   <si>
-    <t xml:space="preserve">Thông tin cá nhân </t>
+    <t>Thông tin tài khoản</t>
   </si>
 </sst>
 </file>
@@ -424,8 +424,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71384D48-A33A-4B49-928A-BF8AAFDD9836}">
   <dimension ref="A1:D9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/Code/DoAn3_10122277_12522T.1/src/test/resources/Book1.xlsx
+++ b/Code/DoAn3_10122277_12522T.1/src/test/resources/Book1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\DoAn3-1012227_12522T.1\Code\DoAn3_10122277_12522T.1\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2CBB397-7548-4526-808E-F55A23632138}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52B38CDE-9356-4698-8FBD-33D4C01D33B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2244" yWindow="3084" windowWidth="18036" windowHeight="8964" xr2:uid="{865DF4FD-EE97-4CA4-8695-B58D479214D9}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{865DF4FD-EE97-4CA4-8695-B58D479214D9}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -97,7 +97,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
@@ -105,8 +105,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -424,8 +430,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71384D48-A33A-4B49-928A-BF8AAFDD9836}">
   <dimension ref="A1:D9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -438,73 +444,82 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="3" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="3" t="s">
         <v>11</v>
       </c>
+      <c r="D2" s="3"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="3" t="s">
         <v>9</v>
       </c>
+      <c r="D3" s="3"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
+      <c r="A4" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="3">
+      <c r="B4" s="4">
         <v>111111</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C4" s="3" t="s">
         <v>9</v>
       </c>
+      <c r="D4" s="3"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B5" s="1" t="s">
+      <c r="A5" s="3"/>
+      <c r="B5" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C5" s="3" t="s">
         <v>4</v>
       </c>
+      <c r="D5" s="3"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6" s="1" t="s">
+      <c r="A6" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="B6" s="3"/>
+      <c r="C6" s="3" t="s">
         <v>5</v>
       </c>
+      <c r="D6" s="3"/>
     </row>
     <row r="7" spans="1:4" ht="75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C7" s="2" t="s">
+      <c r="A7" s="3"/>
+      <c r="B7" s="3"/>
+      <c r="C7" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="D7" s="2"/>
+      <c r="D7" s="5"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C9" s="2"/>
